--- a/Excel/Pesquisa de mercado.xlsx
+++ b/Excel/Pesquisa de mercado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\OneDrive\Documentos\DSC Python VSC\Nova pasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\OneDrive\Documentos\DSC Python VSC\Nova pasta\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9326A46-4EED-416D-958A-AE52FFC7DD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1CD04-DFF0-4229-B54C-62AFCDC6A784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E6E6262-6D30-4BB8-88B3-B4B44E3822F7}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10780" xr2:uid="{9E6E6262-6D30-4BB8-88B3-B4B44E3822F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
   <si>
     <t>Cargo</t>
   </si>
@@ -77,9 +75,6 @@
     <t>COMUNICAÇÃO, RESOLUÇÃO DE PROBLEMAS, TRABALHO EM EQUIPE</t>
   </si>
   <si>
-    <t>Comunicação, análitico, criatividade</t>
-  </si>
-  <si>
     <t>REACT, HTML, CSS, JAVASCRIPT, DJANGO, FIGMA, GITHUB, ADOBE XD</t>
   </si>
   <si>
@@ -122,9 +117,6 @@
     <t>Senior</t>
   </si>
   <si>
-    <t>trabalho em equipe, comunicação, liderança, escrita clara, atenção aos detalhes, análitico</t>
-  </si>
-  <si>
     <t>angular, entity, .net, .net core, .net mvc, react, git</t>
   </si>
   <si>
@@ -165,6 +157,15 @@
   </si>
   <si>
     <t>analítico, proatividade, comunicação, organização, trabalho em equipe, gestão de prioridades</t>
+  </si>
+  <si>
+    <t>trabalho em equipe, comunicação, liderança, escrita clara, atenção aos detalhes, analítico</t>
+  </si>
+  <si>
+    <t>Comunicação, analítico, criatividade</t>
+  </si>
+  <si>
+    <t>trabalho em equipe, solução de problemas, autonomia, analítico</t>
   </si>
 </sst>
 </file>
@@ -572,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CF5283-92C0-49A0-B96F-0578D207137E}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -632,15 +633,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5">
         <v>4000</v>
@@ -655,15 +656,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="5">
         <v>3000</v>
@@ -683,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>6000</v>
@@ -695,44 +696,44 @@
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="5">
         <v>12000</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="5">
         <v>8000</v>
@@ -741,21 +742,21 @@
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>12000</v>
@@ -764,21 +765,21 @@
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5">
         <v>10000</v>
@@ -787,21 +788,21 @@
         <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>7000</v>
@@ -810,21 +811,21 @@
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5">
         <v>4000</v>
@@ -839,15 +840,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5">
         <v>3500</v>
@@ -859,18 +860,18 @@
         <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5">
         <v>5000</v>
@@ -879,10 +880,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -890,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5">
         <v>3000</v>
@@ -905,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
